--- a/TestData/Staging/Web_POS/Order/salesperson_order_test_data.xlsx
+++ b/TestData/Staging/Web_POS/Order/salesperson_order_test_data.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\PROD\zwing-qa-automation\TestData\Staging\Web_POS\Order\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>TC_Id</t>
   </si>
@@ -37,9 +43,6 @@
     <t>opening_balance</t>
   </si>
   <si>
-    <t>store_name</t>
-  </si>
-  <si>
     <t>assortment</t>
   </si>
   <si>
@@ -121,16 +124,13 @@
     <t>500 : 1</t>
   </si>
   <si>
-    <t>Index9QA</t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
     <t>8906118412556 : 2</t>
   </si>
   <si>
-    <t>02-04-2024</t>
+    <t>2024-08-08</t>
   </si>
   <si>
     <t>Maharashtra</t>
@@ -217,15 +217,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -236,37 +238,30 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
     <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -348,6 +343,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -374,24 +370,25 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -452,6 +449,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -460,22 +458,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="18.63"/>
-    <col customWidth="1" min="3" max="3" width="42.0"/>
-    <col customWidth="1" min="5" max="5" width="24.75"/>
-    <col customWidth="1" min="30" max="30" width="24.75"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="14.71094" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,873 +556,840 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2"/>
       <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="V2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="Y2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="V3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="Y3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AE3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="2"/>
+      <c r="R4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="V4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="Y4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE4" s="2"/>
-    </row>
-    <row r="5">
+      <c r="AC4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="O5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="2"/>
+      <c r="R5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="V5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="Y5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE5" s="2"/>
-    </row>
-    <row r="6">
+      <c r="AC5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD5" s="2"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="O6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="2"/>
+      <c r="R6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="V6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="Y6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE6" s="2"/>
-    </row>
-    <row r="7">
+      <c r="AC6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="O7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="2"/>
+      <c r="R7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="V7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="Y7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE7" s="2"/>
-    </row>
-    <row r="8">
+      <c r="AC7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="O8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="2"/>
+      <c r="R8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="V8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="Y8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE8" s="2"/>
-    </row>
-    <row r="9">
+      <c r="AC8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD8" s="2"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="O9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="2"/>
+      <c r="R9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="V9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="Y9" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="Z9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AA9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="M10" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="O10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="2"/>
+      <c r="R10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="V10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="Y10" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="Z10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AA10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="M11" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="O11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" s="2"/>
+      <c r="R11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="V11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="Y11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE11" s="2"/>
-    </row>
-    <row r="12">
+      <c r="AC11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
@@ -1434,7 +1403,9 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="N12" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1451,94 +1422,90 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="O13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="Q13" s="2"/>
+      <c r="R13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="V13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="Y13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE13" s="2"/>
-    </row>
-    <row r="14">
+      <c r="AC13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1569,9 +1536,8 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1602,9 +1568,8 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-    </row>
-    <row r="16">
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1635,9 +1600,8 @@
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-    </row>
-    <row r="17">
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1668,9 +1632,8 @@
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-    </row>
-    <row r="18">
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1701,9 +1664,8 @@
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-    </row>
-    <row r="19">
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1734,9 +1696,8 @@
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-    </row>
-    <row r="20">
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1767,9 +1728,7 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>